--- a/state_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
+++ b/state_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U186"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.525922522583348</v>
+        <v>0.524933106887377</v>
       </c>
       <c r="H2" t="n">
         <v>1.4</v>
@@ -651,7 +651,7 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0105486200724908</v>
+        <v>0.0105560195020217</v>
       </c>
       <c r="H3" t="n">
         <v>0.039</v>
@@ -732,7 +732,7 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0105486200724908</v>
+        <v>0.0105560195020217</v>
       </c>
       <c r="H4" t="n">
         <v>0.039</v>
@@ -1153,7 +1153,7 @@
         <v>0.0138</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0202676325553023</v>
+        <v>0.0202797236204765</v>
       </c>
       <c r="H9" t="n">
         <v>0.124316513099715</v>
@@ -1234,7 +1234,7 @@
         <v>0.0138</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0202676325553023</v>
+        <v>0.0202797236204765</v>
       </c>
       <c r="H10" t="n">
         <v>0.124316513099715</v>
@@ -1311,7 +1311,7 @@
         <v>0.052</v>
       </c>
       <c r="G11" t="n">
-        <v>0.119346101757278</v>
+        <v>0.119379634454346</v>
       </c>
       <c r="H11" t="n">
         <v>0.844</v>
@@ -1388,7 +1388,7 @@
         <v>0.052</v>
       </c>
       <c r="G12" t="n">
-        <v>0.119346101757278</v>
+        <v>0.119379634454346</v>
       </c>
       <c r="H12" t="n">
         <v>0.844</v>
@@ -1619,7 +1619,7 @@
         <v>0.037</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0534302110915684</v>
+        <v>0.0534128864324946</v>
       </c>
       <c r="H15" t="n">
         <v>0.349</v>
@@ -1696,7 +1696,7 @@
         <v>0.037</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0534302110915684</v>
+        <v>0.0534128864324946</v>
       </c>
       <c r="H16" t="n">
         <v>0.349</v>
@@ -1858,7 +1858,7 @@
         <v>0.0095</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0097530217125575</v>
+        <v>0.0097560339118185</v>
       </c>
       <c r="H18" t="n">
         <v>0.039</v>
@@ -1939,7 +1939,7 @@
         <v>0.0095</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0097530217125575</v>
+        <v>0.0097560339118185</v>
       </c>
       <c r="H19" t="n">
         <v>0.039</v>
@@ -2360,7 +2360,7 @@
         <v>0.01722</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0212653801140297</v>
+        <v>0.0212721799153975</v>
       </c>
       <c r="H24" t="n">
         <v>0.124316513099715</v>
@@ -2441,7 +2441,7 @@
         <v>0.01722</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0212653801140297</v>
+        <v>0.0212721799153975</v>
       </c>
       <c r="H25" t="n">
         <v>0.124316513099715</v>
@@ -2522,7 +2522,7 @@
         <v>0.012</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0772119095284159</v>
+        <v>0.0772123807717965</v>
       </c>
       <c r="H26" t="n">
         <v>0.4722</v>
@@ -2603,7 +2603,7 @@
         <v>0.012</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0772119095284159</v>
+        <v>0.0772123807717965</v>
       </c>
       <c r="H27" t="n">
         <v>0.4722</v>
@@ -2680,10 +2680,10 @@
         <v>0.0325</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0949247746546821</v>
+        <v>0.0949361730413308</v>
       </c>
       <c r="H28" t="n">
-        <v>0.523</v>
+        <v>0.5226</v>
       </c>
       <c r="I28" t="n">
         <v>0.3098</v>
@@ -2757,10 +2757,10 @@
         <v>0.0325</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0949247746546821</v>
+        <v>0.0949361730413308</v>
       </c>
       <c r="H29" t="n">
-        <v>0.523</v>
+        <v>0.5226</v>
       </c>
       <c r="I29" t="n">
         <v>0.3098</v>
@@ -2988,7 +2988,7 @@
         <v>0.0345</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0498512637231473</v>
+        <v>0.0498339390640736</v>
       </c>
       <c r="H32" t="n">
         <v>0.452</v>
@@ -3065,7 +3065,7 @@
         <v>0.0345</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0498512637231473</v>
+        <v>0.0498339390640736</v>
       </c>
       <c r="H33" t="n">
         <v>0.452</v>
@@ -3227,7 +3227,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0083541911897959</v>
+        <v>0.008356005545616101</v>
       </c>
       <c r="H35" t="n">
         <v>0.026</v>
@@ -3308,7 +3308,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0083541911897959</v>
+        <v>0.008356005545616101</v>
       </c>
       <c r="H36" t="n">
         <v>0.026</v>
@@ -3729,7 +3729,7 @@
         <v>0.01675</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0198077162347716</v>
+        <v>0.019811110584914</v>
       </c>
       <c r="H41" t="n">
         <v>0.124316513099715</v>
@@ -3810,7 +3810,7 @@
         <v>0.01675</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0198077162347716</v>
+        <v>0.019811110584914</v>
       </c>
       <c r="H42" t="n">
         <v>0.124316513099715</v>
@@ -3891,7 +3891,7 @@
         <v>0.012</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07075095587639391</v>
+        <v>0.070751301454873</v>
       </c>
       <c r="H43" t="n">
         <v>0.4722</v>
@@ -3972,7 +3972,7 @@
         <v>0.012</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07075095587639391</v>
+        <v>0.070751301454873</v>
       </c>
       <c r="H44" t="n">
         <v>0.4722</v>
@@ -4049,10 +4049,10 @@
         <v>0.027</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0868</v>
+        <v>0.08684</v>
       </c>
       <c r="H45" t="n">
-        <v>0.523</v>
+        <v>0.5226</v>
       </c>
       <c r="I45" t="n">
         <v>0.286</v>
@@ -4060,13 +4060,13 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.0125</v>
+        <v>0.0123</v>
       </c>
       <c r="M45" t="n">
         <v>0.19765</v>
       </c>
       <c r="N45" t="n">
-        <v>0.2509</v>
+        <v>0.25117</v>
       </c>
       <c r="O45" t="n">
         <v>1870622</v>
@@ -4126,10 +4126,10 @@
         <v>0.027</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0868</v>
+        <v>0.08684</v>
       </c>
       <c r="H46" t="n">
-        <v>0.523</v>
+        <v>0.5226</v>
       </c>
       <c r="I46" t="n">
         <v>0.286</v>
@@ -4137,13 +4137,13 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.0125</v>
+        <v>0.0123</v>
       </c>
       <c r="M46" t="n">
         <v>0.19765</v>
       </c>
       <c r="N46" t="n">
-        <v>0.2509</v>
+        <v>0.25117</v>
       </c>
       <c r="O46" t="n">
         <v>1870622</v>
@@ -4357,7 +4357,7 @@
         <v>0.037</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0554077338106577</v>
+        <v>0.055393104098551</v>
       </c>
       <c r="H49" t="n">
         <v>0.452</v>
@@ -4434,7 +4434,7 @@
         <v>0.037</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0554077338106577</v>
+        <v>0.055393104098551</v>
       </c>
       <c r="H50" t="n">
         <v>0.452</v>
@@ -4515,7 +4515,7 @@
         <v>0.44</v>
       </c>
       <c r="G51" t="n">
-        <v>0.591768547845308</v>
+        <v>0.591717824718391</v>
       </c>
       <c r="H51" t="n">
         <v>1.88</v>
@@ -4596,7 +4596,7 @@
         <v>0.008</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0080630258081695</v>
+        <v>0.008065130294848699</v>
       </c>
       <c r="H52" t="n">
         <v>0.026</v>
@@ -4677,7 +4677,7 @@
         <v>0.008</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0080630258081695</v>
+        <v>0.008065130294848699</v>
       </c>
       <c r="H53" t="n">
         <v>0.026</v>
@@ -5098,7 +5098,7 @@
         <v>0.01075</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0176678249754487</v>
+        <v>0.0176813155949065</v>
       </c>
       <c r="H58" t="n">
         <v>0.124316513099715</v>
@@ -5179,7 +5179,7 @@
         <v>0.01075</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0176678249754487</v>
+        <v>0.0176813155949065</v>
       </c>
       <c r="H59" t="n">
         <v>0.124316513099715</v>
@@ -5260,7 +5260,7 @@
         <v>0.013</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06479286711868951</v>
+        <v>0.06479365746576241</v>
       </c>
       <c r="H60" t="n">
         <v>0.4722</v>
@@ -5341,7 +5341,7 @@
         <v>0.013</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06479286711868951</v>
+        <v>0.06479365746576241</v>
       </c>
       <c r="H61" t="n">
         <v>0.4722</v>
@@ -5418,18 +5418,18 @@
         <v>0.028</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0800668175424179</v>
+        <v>0.08009195717924231</v>
       </c>
       <c r="H62" t="n">
-        <v>0.523</v>
+        <v>0.5226</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2627</v>
+        <v>0.2628</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.0105</v>
+        <v>0.01055</v>
       </c>
       <c r="M62" t="n">
         <v>0.16743</v>
@@ -5495,18 +5495,18 @@
         <v>0.028</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0800668175424179</v>
+        <v>0.08009195717924231</v>
       </c>
       <c r="H63" t="n">
-        <v>0.523</v>
+        <v>0.5226</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2627</v>
+        <v>0.2628</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.0105</v>
+        <v>0.01055</v>
       </c>
       <c r="M63" t="n">
         <v>0.16743</v>
@@ -5726,7 +5726,7 @@
         <v>0.037</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0621289126575368</v>
+        <v>0.062117362884821</v>
       </c>
       <c r="H66" t="n">
         <v>0.452</v>
@@ -5803,7 +5803,7 @@
         <v>0.037</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0621289126575368</v>
+        <v>0.062117362884821</v>
       </c>
       <c r="H67" t="n">
         <v>0.452</v>
@@ -5884,7 +5884,7 @@
         <v>0.43</v>
       </c>
       <c r="G68" t="n">
-        <v>0.542933992144276</v>
+        <v>0.542882311977228</v>
       </c>
       <c r="H68" t="n">
         <v>1.88</v>
@@ -5965,7 +5965,7 @@
         <v>0.0075</v>
       </c>
       <c r="G69" t="n">
-        <v>0.008505004301159899</v>
+        <v>0.0085062748731172</v>
       </c>
       <c r="H69" t="n">
         <v>0.031</v>
@@ -6046,7 +6046,7 @@
         <v>0.0075</v>
       </c>
       <c r="G70" t="n">
-        <v>0.008505004301159899</v>
+        <v>0.0085062748731172</v>
       </c>
       <c r="H70" t="n">
         <v>0.031</v>
@@ -6467,7 +6467,7 @@
         <v>0.00767</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0133961475882805</v>
+        <v>0.0134270985349422</v>
       </c>
       <c r="H75" t="n">
         <v>0.0568574415013607</v>
@@ -6548,7 +6548,7 @@
         <v>0.00767</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0133961475882805</v>
+        <v>0.0134270985349422</v>
       </c>
       <c r="H76" t="n">
         <v>0.0568574415013607</v>
@@ -6629,7 +6629,7 @@
         <v>0.0125</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0666364617770899</v>
+        <v>0.0666374726788288</v>
       </c>
       <c r="H77" t="n">
         <v>0.4722</v>
@@ -6710,7 +6710,7 @@
         <v>0.0125</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0666364617770899</v>
+        <v>0.0666374726788288</v>
       </c>
       <c r="H78" t="n">
         <v>0.4722</v>
@@ -6784,13 +6784,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.027</v>
+        <v>0.02705</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0799783247513764</v>
+        <v>0.08000198780180599</v>
       </c>
       <c r="H79" t="n">
-        <v>0.523</v>
+        <v>0.5226</v>
       </c>
       <c r="I79" t="n">
         <v>0.303</v>
@@ -6798,13 +6798,13 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.00818</v>
       </c>
       <c r="M79" t="n">
         <v>0.1665</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2507</v>
+        <v>0.25091</v>
       </c>
       <c r="O79" t="n">
         <v>1870622</v>
@@ -6861,13 +6861,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.027</v>
+        <v>0.02705</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0799783247513764</v>
+        <v>0.08000198780180599</v>
       </c>
       <c r="H80" t="n">
-        <v>0.523</v>
+        <v>0.5226</v>
       </c>
       <c r="I80" t="n">
         <v>0.303</v>
@@ -6875,13 +6875,13 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.00818</v>
       </c>
       <c r="M80" t="n">
         <v>0.1665</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2507</v>
+        <v>0.25091</v>
       </c>
       <c r="O80" t="n">
         <v>1870622</v>
@@ -7253,7 +7253,7 @@
         <v>0.29</v>
       </c>
       <c r="G85" t="n">
-        <v>0.460292482710313</v>
+        <v>0.460240802543266</v>
       </c>
       <c r="H85" t="n">
         <v>1.88</v>
@@ -7334,7 +7334,7 @@
         <v>0.007</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0079881399672813</v>
+        <v>0.0079894320743565</v>
       </c>
       <c r="H86" t="n">
         <v>0.031</v>
@@ -7415,7 +7415,7 @@
         <v>0.007</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0079881399672813</v>
+        <v>0.0079894320743565</v>
       </c>
       <c r="H87" t="n">
         <v>0.031</v>
@@ -7833,10 +7833,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.00666</v>
+        <v>0.00685</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0103289407315858</v>
+        <v>0.0103830186604738</v>
       </c>
       <c r="H92" t="n">
         <v>0.0440904387943723</v>
@@ -7914,10 +7914,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.00666</v>
+        <v>0.00685</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0103289407315858</v>
+        <v>0.0103830186604738</v>
       </c>
       <c r="H93" t="n">
         <v>0.0440904387943723</v>
@@ -7998,7 +7998,7 @@
         <v>0.013</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0919540732054988</v>
+        <v>0.0919546941544942</v>
       </c>
       <c r="H94" t="n">
         <v>1.02</v>
@@ -8079,7 +8079,7 @@
         <v>0.013</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0919540732054988</v>
+        <v>0.0919546941544942</v>
       </c>
       <c r="H95" t="n">
         <v>1.02</v>
@@ -8156,7 +8156,7 @@
         <v>0.03</v>
       </c>
       <c r="G96" t="n">
-        <v>0.103825194412078</v>
+        <v>0.103840164455686</v>
       </c>
       <c r="H96" t="n">
         <v>1.03</v>
@@ -8167,7 +8167,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.00614</v>
+        <v>0.00617</v>
       </c>
       <c r="M96" t="n">
         <v>0.17629</v>
@@ -8233,7 +8233,7 @@
         <v>0.03</v>
       </c>
       <c r="G97" t="n">
-        <v>0.103825194412078</v>
+        <v>0.103840164455686</v>
       </c>
       <c r="H97" t="n">
         <v>1.03</v>
@@ -8244,7 +8244,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00614</v>
+        <v>0.00617</v>
       </c>
       <c r="M97" t="n">
         <v>0.17629</v>
@@ -8622,7 +8622,7 @@
         <v>0.3</v>
       </c>
       <c r="G102" t="n">
-        <v>0.417047275568668</v>
+        <v>0.416885425373534</v>
       </c>
       <c r="H102" t="n">
         <v>1.8</v>
@@ -8703,7 +8703,7 @@
         <v>0.008</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0087898242511526</v>
+        <v>0.0087909718357881</v>
       </c>
       <c r="H103" t="n">
         <v>0.031</v>
@@ -8784,7 +8784,7 @@
         <v>0.008</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0087898242511526</v>
+        <v>0.0087909718357881</v>
       </c>
       <c r="H104" t="n">
         <v>0.031</v>
@@ -9202,10 +9202,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.00869</v>
+        <v>0.00893</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0128404052126705</v>
+        <v>0.0129157726825355</v>
       </c>
       <c r="H109" t="n">
         <v>0.07463400219977211</v>
@@ -9283,10 +9283,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.00869</v>
+        <v>0.00893</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0128404052126705</v>
+        <v>0.0129157726825355</v>
       </c>
       <c r="H110" t="n">
         <v>0.07463400219977211</v>
@@ -9367,7 +9367,7 @@
         <v>0.0395</v>
       </c>
       <c r="G111" t="n">
-        <v>0.10101847998516</v>
+        <v>0.101019100934155</v>
       </c>
       <c r="H111" t="n">
         <v>1.02</v>
@@ -9448,7 +9448,7 @@
         <v>0.0395</v>
       </c>
       <c r="G112" t="n">
-        <v>0.10101847998516</v>
+        <v>0.101019100934155</v>
       </c>
       <c r="H112" t="n">
         <v>1.02</v>
@@ -9522,10 +9522,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.045</v>
+        <v>0.0447</v>
       </c>
       <c r="G113" t="n">
-        <v>0.114514660723753</v>
+        <v>0.114530326561136</v>
       </c>
       <c r="H113" t="n">
         <v>1.03</v>
@@ -9599,10 +9599,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.045</v>
+        <v>0.0447</v>
       </c>
       <c r="G114" t="n">
-        <v>0.114514660723753</v>
+        <v>0.114530326561136</v>
       </c>
       <c r="H114" t="n">
         <v>1.03</v>
@@ -9991,13 +9991,13 @@
         <v>0.3</v>
       </c>
       <c r="G119" t="n">
-        <v>0.6057544163338831</v>
+        <v>0.679064346199448</v>
       </c>
       <c r="H119" t="n">
-        <v>3.2</v>
+        <v>4.24454714997291</v>
       </c>
       <c r="I119" t="n">
-        <v>1.96</v>
+        <v>2.64</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -10005,10 +10005,10 @@
         <v>0.4</v>
       </c>
       <c r="M119" t="n">
-        <v>1.232</v>
+        <v>1.3864</v>
       </c>
       <c r="N119" t="n">
-        <v>1.8</v>
+        <v>1.836</v>
       </c>
       <c r="O119" t="n">
         <v>1870622</v>
@@ -10072,7 +10072,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0090931526345089</v>
+        <v>0.009094326508576099</v>
       </c>
       <c r="H120" t="n">
         <v>0.031</v>
@@ -10153,7 +10153,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0090931526345089</v>
+        <v>0.009094326508576099</v>
       </c>
       <c r="H121" t="n">
         <v>0.031</v>
@@ -10571,10 +10571,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.00988</v>
+        <v>0.01015</v>
       </c>
       <c r="G126" t="n">
-        <v>0.014411009419801</v>
+        <v>0.0144946115920429</v>
       </c>
       <c r="H126" t="n">
         <v>0.07463400219977211</v>
@@ -10585,7 +10585,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00954</v>
+        <v>0.00967</v>
       </c>
       <c r="M126" t="n">
         <v>0.02527</v>
@@ -10652,10 +10652,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.00988</v>
+        <v>0.01015</v>
       </c>
       <c r="G127" t="n">
-        <v>0.014411009419801</v>
+        <v>0.0144946115920429</v>
       </c>
       <c r="H127" t="n">
         <v>0.07463400219977211</v>
@@ -10666,7 +10666,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00954</v>
+        <v>0.00967</v>
       </c>
       <c r="M127" t="n">
         <v>0.02527</v>
@@ -10736,7 +10736,7 @@
         <v>0.053</v>
       </c>
       <c r="G128" t="n">
-        <v>0.109035595980364</v>
+        <v>0.109035211744798</v>
       </c>
       <c r="H128" t="n">
         <v>1.02</v>
@@ -10817,7 +10817,7 @@
         <v>0.053</v>
       </c>
       <c r="G129" t="n">
-        <v>0.109035595980364</v>
+        <v>0.109035211744798</v>
       </c>
       <c r="H129" t="n">
         <v>1.02</v>
@@ -10894,7 +10894,7 @@
         <v>0.06</v>
       </c>
       <c r="G130" t="n">
-        <v>0.12474156743692</v>
+        <v>0.124732060789975</v>
       </c>
       <c r="H130" t="n">
         <v>1.03</v>
@@ -10971,7 +10971,7 @@
         <v>0.06</v>
       </c>
       <c r="G131" t="n">
-        <v>0.12474156743692</v>
+        <v>0.124732060789975</v>
       </c>
       <c r="H131" t="n">
         <v>1.03</v>
@@ -11357,16 +11357,16 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="G136" t="n">
-        <v>0.760652535155242</v>
+        <v>0.834013188147724</v>
       </c>
       <c r="H136" t="n">
-        <v>3.2</v>
+        <v>4.24454714997291</v>
       </c>
       <c r="I136" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -11377,7 +11377,7 @@
         <v>1.8</v>
       </c>
       <c r="N136" t="n">
-        <v>2.4</v>
+        <v>2.472</v>
       </c>
       <c r="O136" t="n">
         <v>1870622</v>
@@ -11441,7 +11441,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>0.009031760998468599</v>
+        <v>0.0090322945991782</v>
       </c>
       <c r="H137" t="n">
         <v>0.031</v>
@@ -11522,7 +11522,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>0.009031760998468599</v>
+        <v>0.0090322945991782</v>
       </c>
       <c r="H138" t="n">
         <v>0.031</v>
@@ -11603,7 +11603,7 @@
         <v>285</v>
       </c>
       <c r="G139" t="n">
-        <v>1382.80034530383</v>
+        <v>1382.79959081034</v>
       </c>
       <c r="H139" t="n">
         <v>19000</v>
@@ -11688,7 +11688,7 @@
         <v>285</v>
       </c>
       <c r="G140" t="n">
-        <v>1382.80034530383</v>
+        <v>1382.79959081034</v>
       </c>
       <c r="H140" t="n">
         <v>19000</v>
@@ -11773,7 +11773,7 @@
         <v>285</v>
       </c>
       <c r="G141" t="n">
-        <v>1382.80034530383</v>
+        <v>1382.79959081034</v>
       </c>
       <c r="H141" t="n">
         <v>19000</v>
@@ -11858,7 +11858,7 @@
         <v>285</v>
       </c>
       <c r="G142" t="n">
-        <v>1382.80034530383</v>
+        <v>1382.79959081034</v>
       </c>
       <c r="H142" t="n">
         <v>19000</v>
@@ -11943,7 +11943,7 @@
         <v>0.01158</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0151025078578636</v>
+        <v>0.0151813643309399</v>
       </c>
       <c r="H143" t="n">
         <v>0.07463400219977211</v>
@@ -12024,7 +12024,7 @@
         <v>0.01158</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0151025078578636</v>
+        <v>0.0151813643309399</v>
       </c>
       <c r="H144" t="n">
         <v>0.07463400219977211</v>
@@ -12105,7 +12105,7 @@
         <v>0.0545</v>
       </c>
       <c r="G145" t="n">
-        <v>0.114238364920559</v>
+        <v>0.114235045183177</v>
       </c>
       <c r="H145" t="n">
         <v>1.02</v>
@@ -12186,7 +12186,7 @@
         <v>0.0545</v>
       </c>
       <c r="G146" t="n">
-        <v>0.114238364920559</v>
+        <v>0.114235045183177</v>
       </c>
       <c r="H146" t="n">
         <v>1.02</v>
@@ -12263,7 +12263,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>0.130895584118283</v>
+        <v>0.130892241851581</v>
       </c>
       <c r="H147" t="n">
         <v>1.03</v>
@@ -12340,7 +12340,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>0.130895584118283</v>
+        <v>0.130892241851581</v>
       </c>
       <c r="H148" t="n">
         <v>1.03</v>
@@ -12726,16 +12726,16 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="G153" t="n">
-        <v>1.31972590359645</v>
+        <v>1.40706081719598</v>
       </c>
       <c r="H153" t="n">
-        <v>6.95644102623152</v>
+        <v>8.996067335954841</v>
       </c>
       <c r="I153" t="n">
-        <v>5.24484</v>
+        <v>4.72372</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -12743,10 +12743,10 @@
         <v>1.15</v>
       </c>
       <c r="M153" t="n">
-        <v>2.656</v>
+        <v>2.8</v>
       </c>
       <c r="N153" t="n">
-        <v>4.20281</v>
+        <v>4.2302</v>
       </c>
       <c r="O153" t="n">
         <v>1870622</v>
@@ -12810,7 +12810,7 @@
         <v>0.008</v>
       </c>
       <c r="G154" t="n">
-        <v>0.008436542442170099</v>
+        <v>0.0084368392890589</v>
       </c>
       <c r="H154" t="n">
         <v>0.025</v>
@@ -12891,7 +12891,7 @@
         <v>0.008</v>
       </c>
       <c r="G155" t="n">
-        <v>0.008436542442170099</v>
+        <v>0.0084368392890589</v>
       </c>
       <c r="H155" t="n">
         <v>0.025</v>
@@ -12972,10 +12972,10 @@
         <v>280</v>
       </c>
       <c r="G156" t="n">
-        <v>1851.66606436236</v>
+        <v>1939.10374717939</v>
       </c>
       <c r="H156" t="n">
-        <v>25934.2117053946</v>
+        <v>31005.6410694052</v>
       </c>
       <c r="I156" t="n">
         <v>9360</v>
@@ -13057,10 +13057,10 @@
         <v>280</v>
       </c>
       <c r="G157" t="n">
-        <v>1851.66606436236</v>
+        <v>1939.10374717939</v>
       </c>
       <c r="H157" t="n">
-        <v>25934.2117053946</v>
+        <v>31005.6410694052</v>
       </c>
       <c r="I157" t="n">
         <v>9360</v>
@@ -13142,10 +13142,10 @@
         <v>280</v>
       </c>
       <c r="G158" t="n">
-        <v>1851.66606436236</v>
+        <v>1939.10374717939</v>
       </c>
       <c r="H158" t="n">
-        <v>25934.2117053946</v>
+        <v>31005.6410694052</v>
       </c>
       <c r="I158" t="n">
         <v>9360</v>
@@ -13227,10 +13227,10 @@
         <v>280</v>
       </c>
       <c r="G159" t="n">
-        <v>1851.66606436236</v>
+        <v>1939.10374717939</v>
       </c>
       <c r="H159" t="n">
-        <v>25934.2117053946</v>
+        <v>31005.6410694052</v>
       </c>
       <c r="I159" t="n">
         <v>9360</v>
@@ -13312,7 +13312,7 @@
         <v>0.01119</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0216295845072646</v>
+        <v>0.0216871300086645</v>
       </c>
       <c r="H160" t="n">
         <v>0.410839397053742</v>
@@ -13393,7 +13393,7 @@
         <v>0.01119</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0216295845072646</v>
+        <v>0.0216871300086645</v>
       </c>
       <c r="H161" t="n">
         <v>0.410839397053742</v>
@@ -13474,7 +13474,7 @@
         <v>0.049</v>
       </c>
       <c r="G162" t="n">
-        <v>0.112490795099253</v>
+        <v>0.112482820397474</v>
       </c>
       <c r="H162" t="n">
         <v>1.02</v>
@@ -13485,7 +13485,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.0027</v>
+        <v>0.00265</v>
       </c>
       <c r="M162" t="n">
         <v>0.2152</v>
@@ -13555,7 +13555,7 @@
         <v>0.049</v>
       </c>
       <c r="G163" t="n">
-        <v>0.112490795099253</v>
+        <v>0.112482820397474</v>
       </c>
       <c r="H163" t="n">
         <v>1.02</v>
@@ -13566,7 +13566,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.0027</v>
+        <v>0.00265</v>
       </c>
       <c r="M163" t="n">
         <v>0.2152</v>
@@ -13632,7 +13632,7 @@
         <v>0.075</v>
       </c>
       <c r="G164" t="n">
-        <v>0.130080954352624</v>
+        <v>0.130070015171476</v>
       </c>
       <c r="H164" t="n">
         <v>1.03</v>
@@ -13709,7 +13709,7 @@
         <v>0.075</v>
       </c>
       <c r="G165" t="n">
-        <v>0.130080954352624</v>
+        <v>0.130070015171476</v>
       </c>
       <c r="H165" t="n">
         <v>1.03</v>
@@ -14098,13 +14098,13 @@
         <v>0.6</v>
       </c>
       <c r="G170" t="n">
-        <v>1.41660471961245</v>
+        <v>1.50858558195362</v>
       </c>
       <c r="H170" t="n">
-        <v>6.95644102623152</v>
+        <v>8.996067335954841</v>
       </c>
       <c r="I170" t="n">
-        <v>5.27649</v>
+        <v>4.80456</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -14112,10 +14112,10 @@
         <v>1.45</v>
       </c>
       <c r="M170" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="N170" t="n">
-        <v>4.32377</v>
+        <v>4.26013</v>
       </c>
       <c r="O170" t="n">
         <v>1870622</v>
@@ -14179,7 +14179,7 @@
         <v>0.008</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0093876265753794</v>
+        <v>0.0093879396139167</v>
       </c>
       <c r="H171" t="n">
         <v>0.033</v>
@@ -14260,7 +14260,7 @@
         <v>0.008</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0093876265753794</v>
+        <v>0.0093879396139167</v>
       </c>
       <c r="H172" t="n">
         <v>0.033</v>
@@ -14341,10 +14341,10 @@
         <v>310</v>
       </c>
       <c r="G173" t="n">
-        <v>2172.39330423667</v>
+        <v>2264.60031520736</v>
       </c>
       <c r="H173" t="n">
-        <v>25934.2117053946</v>
+        <v>31005.6410694052</v>
       </c>
       <c r="I173" t="n">
         <v>13250</v>
@@ -14426,10 +14426,10 @@
         <v>310</v>
       </c>
       <c r="G174" t="n">
-        <v>2172.39330423667</v>
+        <v>2264.60031520736</v>
       </c>
       <c r="H174" t="n">
-        <v>25934.2117053946</v>
+        <v>31005.6410694052</v>
       </c>
       <c r="I174" t="n">
         <v>13250</v>
@@ -14511,10 +14511,10 @@
         <v>310</v>
       </c>
       <c r="G175" t="n">
-        <v>2172.39330423667</v>
+        <v>2264.60031520736</v>
       </c>
       <c r="H175" t="n">
-        <v>25934.2117053946</v>
+        <v>31005.6410694052</v>
       </c>
       <c r="I175" t="n">
         <v>13250</v>
@@ -14596,10 +14596,10 @@
         <v>310</v>
       </c>
       <c r="G176" t="n">
-        <v>2172.39330423667</v>
+        <v>2264.60031520736</v>
       </c>
       <c r="H176" t="n">
-        <v>25934.2117053946</v>
+        <v>31005.6410694052</v>
       </c>
       <c r="I176" t="n">
         <v>13250</v>
@@ -14678,10 +14678,10 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.01258</v>
+        <v>0.01275</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0260338761699635</v>
+        <v>0.0260686153659646</v>
       </c>
       <c r="H177" t="n">
         <v>0.410839397053742</v>
@@ -14759,10 +14759,10 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.01258</v>
+        <v>0.01275</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0260338761699635</v>
+        <v>0.0260686153659646</v>
       </c>
       <c r="H178" t="n">
         <v>0.410839397053742</v>
@@ -14843,7 +14843,7 @@
         <v>0.056</v>
       </c>
       <c r="G179" t="n">
-        <v>0.107264917978544</v>
+        <v>0.107256662239978</v>
       </c>
       <c r="H179" t="n">
         <v>0.426</v>
@@ -14924,7 +14924,7 @@
         <v>0.056</v>
       </c>
       <c r="G180" t="n">
-        <v>0.107264917978544</v>
+        <v>0.107256662239978</v>
       </c>
       <c r="H180" t="n">
         <v>0.426</v>
@@ -15001,7 +15001,7 @@
         <v>0.08</v>
       </c>
       <c r="G181" t="n">
-        <v>0.129831061222221</v>
+        <v>0.129820189912154</v>
       </c>
       <c r="H181" t="n">
         <v>0.5</v>
@@ -15078,7 +15078,7 @@
         <v>0.08</v>
       </c>
       <c r="G182" t="n">
-        <v>0.129831061222221</v>
+        <v>0.129820189912154</v>
       </c>
       <c r="H182" t="n">
         <v>0.5</v>
@@ -15437,6 +15437,1375 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 2)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.53250080764317</v>
+      </c>
+      <c r="H187" t="n">
+        <v>8.996067335954841</v>
+      </c>
+      <c r="I187" t="n">
+        <v>4.88539</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M187" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="N187" t="n">
+        <v>4.29754</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P187" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0101981441035362</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.02175</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.0183</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0101981441035362</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.02175</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.0183</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>273</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1648.11230324465</v>
+      </c>
+      <c r="H190" t="n">
+        <v>31005.6410694052</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6725</v>
+      </c>
+      <c r="J190" t="n">
+        <v>36.3636363636364</v>
+      </c>
+      <c r="K190" t="n">
+        <v>50.9090909090909</v>
+      </c>
+      <c r="L190" t="n">
+        <v>140</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1738.1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>4940</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>273</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1648.11230324465</v>
+      </c>
+      <c r="H191" t="n">
+        <v>31005.6410694052</v>
+      </c>
+      <c r="I191" t="n">
+        <v>6725</v>
+      </c>
+      <c r="J191" t="n">
+        <v>36.3636363636364</v>
+      </c>
+      <c r="K191" t="n">
+        <v>50.9090909090909</v>
+      </c>
+      <c r="L191" t="n">
+        <v>140</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1738.1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>4940</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>273</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1648.11230324465</v>
+      </c>
+      <c r="H192" t="n">
+        <v>31005.6410694052</v>
+      </c>
+      <c r="I192" t="n">
+        <v>6725</v>
+      </c>
+      <c r="J192" t="n">
+        <v>36.3636363636364</v>
+      </c>
+      <c r="K192" t="n">
+        <v>50.9090909090909</v>
+      </c>
+      <c r="L192" t="n">
+        <v>140</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1738.1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>4940</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>273</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1648.11230324465</v>
+      </c>
+      <c r="H193" t="n">
+        <v>31005.6410694052</v>
+      </c>
+      <c r="I193" t="n">
+        <v>6725</v>
+      </c>
+      <c r="J193" t="n">
+        <v>36.3636363636364</v>
+      </c>
+      <c r="K193" t="n">
+        <v>50.9090909090909</v>
+      </c>
+      <c r="L193" t="n">
+        <v>140</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1738.1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4940</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.01386</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.0263529273219033</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.410839397053742</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.07779999999999999</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.01076</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.03241</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.04779</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.01386</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.0263529273219033</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.410839397053742</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.07779999999999999</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.01076</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.03241</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.04779</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.105076965962011</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.31825</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.00265</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.23155</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.2812</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.105076965962011</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.31825</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.00265</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.23155</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.2812</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.128827106926308</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.128827106926308</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.630363636363636</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1.4725</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.630363636363636</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.4725</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.137781818181818</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.09525</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.4154</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.137781818181818</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.7625</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.09525</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.4154</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
+++ b/state_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
@@ -9991,13 +9991,13 @@
         <v>0.3</v>
       </c>
       <c r="G119" t="n">
-        <v>0.679064346199448</v>
+        <v>0.614530859102752</v>
       </c>
       <c r="H119" t="n">
-        <v>4.24454714997291</v>
+        <v>3.2</v>
       </c>
       <c r="I119" t="n">
-        <v>2.64</v>
+        <v>1.96</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -10005,10 +10005,10 @@
         <v>0.4</v>
       </c>
       <c r="M119" t="n">
-        <v>1.3864</v>
+        <v>1.232</v>
       </c>
       <c r="N119" t="n">
-        <v>1.836</v>
+        <v>1.8</v>
       </c>
       <c r="O119" t="n">
         <v>1870622</v>
@@ -11360,13 +11360,13 @@
         <v>0.35</v>
       </c>
       <c r="G136" t="n">
-        <v>0.834013188147724</v>
+        <v>0.769479701051028</v>
       </c>
       <c r="H136" t="n">
-        <v>4.24454714997291</v>
+        <v>3.2</v>
       </c>
       <c r="I136" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -11377,7 +11377,7 @@
         <v>1.8</v>
       </c>
       <c r="N136" t="n">
-        <v>2.472</v>
+        <v>2.4</v>
       </c>
       <c r="O136" t="n">
         <v>1870622</v>
@@ -12729,13 +12729,13 @@
         <v>0.45</v>
       </c>
       <c r="G153" t="n">
-        <v>1.40706081719598</v>
+        <v>1.26879300170498</v>
       </c>
       <c r="H153" t="n">
-        <v>8.996067335954841</v>
+        <v>6.05944233354237</v>
       </c>
       <c r="I153" t="n">
-        <v>4.72372</v>
+        <v>4.44464</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -12743,10 +12743,10 @@
         <v>1.15</v>
       </c>
       <c r="M153" t="n">
-        <v>2.8</v>
+        <v>2.656</v>
       </c>
       <c r="N153" t="n">
-        <v>4.2302</v>
+        <v>4.12514</v>
       </c>
       <c r="O153" t="n">
         <v>1870622</v>
@@ -12972,10 +12972,10 @@
         <v>280</v>
       </c>
       <c r="G156" t="n">
-        <v>1939.10374717939</v>
+        <v>1817.88108481538</v>
       </c>
       <c r="H156" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I156" t="n">
         <v>9360</v>
@@ -13057,10 +13057,10 @@
         <v>280</v>
       </c>
       <c r="G157" t="n">
-        <v>1939.10374717939</v>
+        <v>1817.88108481538</v>
       </c>
       <c r="H157" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I157" t="n">
         <v>9360</v>
@@ -13142,10 +13142,10 @@
         <v>280</v>
       </c>
       <c r="G158" t="n">
-        <v>1939.10374717939</v>
+        <v>1817.88108481538</v>
       </c>
       <c r="H158" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I158" t="n">
         <v>9360</v>
@@ -13227,10 +13227,10 @@
         <v>280</v>
       </c>
       <c r="G159" t="n">
-        <v>1939.10374717939</v>
+        <v>1817.88108481538</v>
       </c>
       <c r="H159" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I159" t="n">
         <v>9360</v>
@@ -14098,13 +14098,13 @@
         <v>0.6</v>
       </c>
       <c r="G170" t="n">
-        <v>1.50858558195362</v>
+        <v>1.36277588561765</v>
       </c>
       <c r="H170" t="n">
-        <v>8.996067335954841</v>
+        <v>6.05944233354237</v>
       </c>
       <c r="I170" t="n">
-        <v>4.80456</v>
+        <v>4.45545</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -14112,10 +14112,10 @@
         <v>1.45</v>
       </c>
       <c r="M170" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="N170" t="n">
-        <v>4.26013</v>
+        <v>4.15461</v>
       </c>
       <c r="O170" t="n">
         <v>1870622</v>
@@ -14341,10 +14341,10 @@
         <v>310</v>
       </c>
       <c r="G173" t="n">
-        <v>2264.60031520736</v>
+        <v>2136.76550762349</v>
       </c>
       <c r="H173" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I173" t="n">
         <v>13250</v>
@@ -14426,10 +14426,10 @@
         <v>310</v>
       </c>
       <c r="G174" t="n">
-        <v>2264.60031520736</v>
+        <v>2136.76550762349</v>
       </c>
       <c r="H174" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I174" t="n">
         <v>13250</v>
@@ -14511,10 +14511,10 @@
         <v>310</v>
       </c>
       <c r="G175" t="n">
-        <v>2264.60031520736</v>
+        <v>2136.76550762349</v>
       </c>
       <c r="H175" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I175" t="n">
         <v>13250</v>
@@ -14596,10 +14596,10 @@
         <v>310</v>
       </c>
       <c r="G176" t="n">
-        <v>2264.60031520736</v>
+        <v>2136.76550762349</v>
       </c>
       <c r="H176" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I176" t="n">
         <v>13250</v>
@@ -15467,13 +15467,13 @@
         <v>0.6</v>
       </c>
       <c r="G187" t="n">
-        <v>1.53250080764317</v>
+        <v>1.37827901344166</v>
       </c>
       <c r="H187" t="n">
-        <v>8.996067335954841</v>
+        <v>6.05944233354237</v>
       </c>
       <c r="I187" t="n">
-        <v>4.88539</v>
+        <v>4.46626</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -15481,10 +15481,10 @@
         <v>1.8</v>
       </c>
       <c r="M187" t="n">
-        <v>3.064</v>
+        <v>2.8</v>
       </c>
       <c r="N187" t="n">
-        <v>4.29754</v>
+        <v>4.22042</v>
       </c>
       <c r="O187" t="n">
         <v>1870622</v>
@@ -15710,10 +15710,10 @@
         <v>273</v>
       </c>
       <c r="G190" t="n">
-        <v>1648.11230324465</v>
+        <v>1520.27749566078</v>
       </c>
       <c r="H190" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I190" t="n">
         <v>6725</v>
@@ -15795,10 +15795,10 @@
         <v>273</v>
       </c>
       <c r="G191" t="n">
-        <v>1648.11230324465</v>
+        <v>1520.27749566078</v>
       </c>
       <c r="H191" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I191" t="n">
         <v>6725</v>
@@ -15880,10 +15880,10 @@
         <v>273</v>
       </c>
       <c r="G192" t="n">
-        <v>1648.11230324465</v>
+        <v>1520.27749566078</v>
       </c>
       <c r="H192" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I192" t="n">
         <v>6725</v>
@@ -15965,10 +15965,10 @@
         <v>273</v>
       </c>
       <c r="G193" t="n">
-        <v>1648.11230324465</v>
+        <v>1520.27749566078</v>
       </c>
       <c r="H193" t="n">
-        <v>31005.6410694052</v>
+        <v>23974.7266522922</v>
       </c>
       <c r="I193" t="n">
         <v>6725</v>
